--- a/biology/Histoire de la zoologie et de la botanique/Claude_Gaillard_(paléontologue)/Claude_Gaillard_(paléontologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Gaillard_(paléontologue)/Claude_Gaillard_(paléontologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claude_Gaillard_(pal%C3%A9ontologue)</t>
+          <t>Claude_Gaillard_(paléontologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude-Antoine Gaillard, né le 13 janvier 1861 à Villeurbanne et mort le 3 février 1945 à Lyon 7e[1], est docteur es sciences, directeur du Muséum de Lyon, paléontologue, égyptologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude-Antoine Gaillard, né le 13 janvier 1861 à Villeurbanne et mort le 3 février 1945 à Lyon 7e, est docteur es sciences, directeur du Muséum de Lyon, paléontologue, égyptologue français.
 Il est membre de :
-l'académie des sciences, belles-lettres et arts de Lyon, de 1929 à sa mort en 1945 [2];
+l'académie des sciences, belles-lettres et arts de Lyon, de 1929 à sa mort en 1945 ;
 la Société linnéenne de Lyon ;
 la Société préhistorique française.
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claude_Gaillard_(pal%C3%A9ontologue)</t>
+          <t>Claude_Gaillard_(paléontologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est fait chevalier de la Légion d'honneur le 10 juillet 1925 puis promu officier le 5 août 1938[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est fait chevalier de la Légion d'honneur le 10 juillet 1925 puis promu officier le 5 août 1938.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Claude_Gaillard_(pal%C3%A9ontologue)</t>
+          <t>Claude_Gaillard_(paléontologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Apparition des ours dès l'époque miocène, 1898
 Mammifères miocènes nouveaux ou peu connus de La Grive-Saint-Alban (Isère), 1899
